--- a/[BC-JAVA-APJ] Advanced Programming with Java v2.0_C1222I1.xlsx
+++ b/[BC-JAVA-APJ] Advanced Programming with Java v2.0_C1222I1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODEGYM\CODEGYM\Module2\C1222I1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B5BDBF-1906-46C4-9377-0E2347B81A87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF76A7E9-8E26-4C32-A7CD-DF9821F678B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7530" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TKB APJ 8x5" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="443">
   <si>
     <t>THỜI KHOÁ BIỂU</t>
   </si>
@@ -1495,6 +1495,16 @@
   <si>
     <t>Tính đóng gói trong java là kỹ thuật ẩn giấu thông tin không liên quan và hiện thị ra thông liên quan. Mục đích chính của đóng gói trong java là giảm thiểu mức độ phức tạp phát triển phần mềm.
 Đóng gói cũng được sử dụng để bảo vệ trạng thái bên trong của một đối tượng. Bởi việc ẩn giấu các biến biểu diễn trạng thái của đối tượng. Việc chỉnh sửa đối tượng được thực hiện, xác nhận thông qua các phương thức. Hơn nữa, việc ẩn giấu các biến thì các lớp sẽ không chia sẻ thông tin với nhau được. Điều này làm giảm số lượng khớp nối có thể có trong một ứng dụng.</t>
+  </si>
+  <si>
+    <t>Là mô hình lập trình dựa trên các khải niệm đối tượng và lớp
+Object Oriented Programming
+- Từ khóa class: định nghĩa lớp, lớp là một tập các đặc điểm và hành vi để thiết kế nên đối tượng
+- Từ khóa new: để khởi tạo đối tượng
+- Thuộc tính là gì: là những đặc điểm của đối tượng
+ - Phương thức: những hành vi, hành động của đối tượng, chức năng của đối tượng
+- Phương thức khởi tạo là gì: là phương thức dùng để khởi tạo các thuộc tính của đổi tượng
+- Đặc điểm của contructor: trùng tên với class, không có kiểu dữ liệu trả về</t>
   </si>
 </sst>
 </file>
@@ -2155,6 +2165,14 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2170,14 +2188,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2714,10 +2724,10 @@
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="115"/>
+      <c r="C7" s="119"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
@@ -2750,10 +2760,10 @@
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="115"/>
+      <c r="C8" s="119"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
@@ -4182,16 +4192,16 @@
         <f t="shared" si="0"/>
         <v>Fri</v>
       </c>
-      <c r="D39" s="116" t="s">
+      <c r="D39" s="120" t="s">
         <v>115</v>
       </c>
-      <c r="E39" s="117"/>
-      <c r="F39" s="118"/>
-      <c r="G39" s="119" t="s">
+      <c r="E39" s="121"/>
+      <c r="F39" s="122"/>
+      <c r="G39" s="123" t="s">
         <v>116</v>
       </c>
-      <c r="H39" s="117"/>
-      <c r="I39" s="118"/>
+      <c r="H39" s="121"/>
+      <c r="I39" s="122"/>
       <c r="J39" s="28"/>
       <c r="K39" s="1"/>
       <c r="M39" s="1"/>
@@ -4221,14 +4231,14 @@
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="D40" s="120" t="s">
+      <c r="D40" s="124" t="s">
         <v>118</v>
       </c>
-      <c r="E40" s="117"/>
-      <c r="F40" s="117"/>
-      <c r="G40" s="117"/>
-      <c r="H40" s="117"/>
-      <c r="I40" s="118"/>
+      <c r="E40" s="121"/>
+      <c r="F40" s="121"/>
+      <c r="G40" s="121"/>
+      <c r="H40" s="121"/>
+      <c r="I40" s="122"/>
       <c r="J40" s="31" t="s">
         <v>119</v>
       </c>
@@ -12107,69 +12117,71 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="122" customWidth="1"/>
-    <col min="2" max="2" width="58.7109375" style="122" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="122" customWidth="1"/>
-    <col min="4" max="4" width="47" style="122" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="122" customWidth="1"/>
-    <col min="6" max="6" width="30" style="122" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="122"/>
+    <col min="1" max="1" width="23.42578125" style="114" customWidth="1"/>
+    <col min="2" max="2" width="58.7109375" style="114" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="114" customWidth="1"/>
+    <col min="4" max="4" width="47" style="114" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="114" customWidth="1"/>
+    <col min="6" max="6" width="30" style="114" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="114"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="114" t="s">
         <v>429</v>
       </c>
-      <c r="D1" s="124" t="s">
+      <c r="D1" s="116" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="126" x14ac:dyDescent="0.25">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="114" t="s">
         <v>430</v>
       </c>
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="115" t="s">
         <v>432</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123" t="s">
+      <c r="C2" s="115"/>
+      <c r="D2" s="115" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="114" t="s">
         <v>433</v>
       </c>
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="115" t="s">
         <v>434</v>
       </c>
-      <c r="C3" s="123"/>
-    </row>
-    <row r="4" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="122" t="s">
+      <c r="C3" s="115"/>
+    </row>
+    <row r="4" spans="1:4" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="114" t="s">
         <v>435</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="115" t="s">
         <v>438</v>
       </c>
-      <c r="C4" s="123"/>
+      <c r="C4" s="115" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="114" t="s">
         <v>437</v>
       </c>
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="115" t="s">
         <v>439</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="115" t="s">
         <v>440</v>
       </c>
-      <c r="D5" s="125" t="s">
+      <c r="D5" s="117" t="s">
         <v>441</v>
       </c>
     </row>
@@ -12308,10 +12320,10 @@
       <c r="A7" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="125" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="115"/>
+      <c r="C7" s="119"/>
       <c r="D7" s="55" t="s">
         <v>146</v>
       </c>
@@ -12337,10 +12349,10 @@
       <c r="A8" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="125" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="115"/>
+      <c r="C8" s="119"/>
       <c r="D8" s="55" t="s">
         <v>151</v>
       </c>
@@ -12366,10 +12378,10 @@
       <c r="A9" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="125" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="115"/>
+      <c r="C9" s="119"/>
       <c r="D9" s="2"/>
       <c r="E9" s="11" t="s">
         <v>157</v>
@@ -12393,10 +12405,10 @@
       <c r="A10" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="B10" s="121" t="s">
+      <c r="B10" s="125" t="s">
         <v>161</v>
       </c>
-      <c r="C10" s="115"/>
+      <c r="C10" s="119"/>
       <c r="D10" s="55" t="s">
         <v>18</v>
       </c>
@@ -20727,10 +20739,10 @@
       <c r="A6" s="55" t="s">
         <v>420</v>
       </c>
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="125" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="115"/>
+      <c r="C6" s="119"/>
       <c r="D6" s="55" t="s">
         <v>146</v>
       </c>
@@ -20754,10 +20766,10 @@
       <c r="A7" s="55" t="s">
         <v>423</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="125" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="115"/>
+      <c r="C7" s="119"/>
       <c r="D7" s="55" t="s">
         <v>151</v>
       </c>
@@ -20780,10 +20792,10 @@
       <c r="A8" s="55" t="s">
         <v>427</v>
       </c>
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="125" t="s">
         <v>428</v>
       </c>
-      <c r="C8" s="115"/>
+      <c r="C8" s="119"/>
       <c r="D8" s="55" t="s">
         <v>18</v>
       </c>

--- a/[BC-JAVA-APJ] Advanced Programming with Java v2.0_C1222I1.xlsx
+++ b/[BC-JAVA-APJ] Advanced Programming with Java v2.0_C1222I1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODEGYM\CODEGYM\Module2\C1222I1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B5BDBF-1906-46C4-9377-0E2347B81A87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4340CA-2813-4DF2-958E-E7017ACCBEFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="444">
   <si>
     <t>THỜI KHOÁ BIỂU</t>
   </si>
@@ -1495,6 +1495,51 @@
   <si>
     <t>Tính đóng gói trong java là kỹ thuật ẩn giấu thông tin không liên quan và hiện thị ra thông liên quan. Mục đích chính của đóng gói trong java là giảm thiểu mức độ phức tạp phát triển phần mềm.
 Đóng gói cũng được sử dụng để bảo vệ trạng thái bên trong của một đối tượng. Bởi việc ẩn giấu các biến biểu diễn trạng thái của đối tượng. Việc chỉnh sửa đối tượng được thực hiện, xác nhận thông qua các phương thức. Hơn nữa, việc ẩn giấu các biến thì các lớp sẽ không chia sẻ thông tin với nhau được. Điều này làm giảm số lượng khớp nối có thể có trong một ứng dụng.</t>
+  </si>
+  <si>
+    <t>Notes lại</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>biến local và biến instance trong java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+https://viettuts.vn/java/bien-trong-java
+https://gpcoder.com/1790-bien-trong-java/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bộ nhớ heap và stack trong java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+https://www.youtube.com/watch?v=1rLHJJqx98Q</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2155,6 +2200,14 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2170,14 +2223,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2714,10 +2759,10 @@
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="115"/>
+      <c r="C7" s="119"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
@@ -2750,10 +2795,10 @@
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="115"/>
+      <c r="C8" s="119"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
@@ -4182,16 +4227,16 @@
         <f t="shared" si="0"/>
         <v>Fri</v>
       </c>
-      <c r="D39" s="116" t="s">
+      <c r="D39" s="120" t="s">
         <v>115</v>
       </c>
-      <c r="E39" s="117"/>
-      <c r="F39" s="118"/>
-      <c r="G39" s="119" t="s">
+      <c r="E39" s="121"/>
+      <c r="F39" s="122"/>
+      <c r="G39" s="123" t="s">
         <v>116</v>
       </c>
-      <c r="H39" s="117"/>
-      <c r="I39" s="118"/>
+      <c r="H39" s="121"/>
+      <c r="I39" s="122"/>
       <c r="J39" s="28"/>
       <c r="K39" s="1"/>
       <c r="M39" s="1"/>
@@ -4221,14 +4266,14 @@
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="D40" s="120" t="s">
+      <c r="D40" s="124" t="s">
         <v>118</v>
       </c>
-      <c r="E40" s="117"/>
-      <c r="F40" s="117"/>
-      <c r="G40" s="117"/>
-      <c r="H40" s="117"/>
-      <c r="I40" s="118"/>
+      <c r="E40" s="121"/>
+      <c r="F40" s="121"/>
+      <c r="G40" s="121"/>
+      <c r="H40" s="121"/>
+      <c r="I40" s="122"/>
       <c r="J40" s="31" t="s">
         <v>119</v>
       </c>
@@ -12104,72 +12149,78 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82880983-B8C6-469A-A081-81ECDC95E864}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="122" customWidth="1"/>
-    <col min="2" max="2" width="58.7109375" style="122" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="122" customWidth="1"/>
-    <col min="4" max="4" width="47" style="122" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="122" customWidth="1"/>
-    <col min="6" max="6" width="30" style="122" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="122"/>
+    <col min="1" max="1" width="23.42578125" style="114" customWidth="1"/>
+    <col min="2" max="2" width="58.7109375" style="114" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="114" customWidth="1"/>
+    <col min="4" max="4" width="47" style="114" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="114" customWidth="1"/>
+    <col min="6" max="6" width="30" style="114" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="114"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="122" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="114" t="s">
         <v>429</v>
       </c>
-      <c r="D1" s="124" t="s">
+      <c r="D1" s="116" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="126" x14ac:dyDescent="0.25">
-      <c r="A2" s="122" t="s">
+      <c r="E1" s="114" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="126" x14ac:dyDescent="0.25">
+      <c r="A2" s="114" t="s">
         <v>430</v>
       </c>
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="115" t="s">
         <v>432</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123" t="s">
+      <c r="C2" s="115"/>
+      <c r="D2" s="115" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A3" s="122" t="s">
+    <row r="3" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A3" s="114" t="s">
         <v>433</v>
       </c>
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="115" t="s">
         <v>434</v>
       </c>
-      <c r="C3" s="123"/>
-    </row>
-    <row r="4" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="122" t="s">
+      <c r="C3" s="115"/>
+    </row>
+    <row r="4" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="114" t="s">
         <v>435</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="115" t="s">
         <v>438</v>
       </c>
-      <c r="C4" s="123"/>
-    </row>
-    <row r="5" spans="1:4" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="122" t="s">
+      <c r="C4" s="115"/>
+      <c r="D4" s="115" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="114" t="s">
         <v>437</v>
       </c>
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="115" t="s">
         <v>439</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="115" t="s">
         <v>440</v>
       </c>
-      <c r="D5" s="125" t="s">
+      <c r="D5" s="117" t="s">
         <v>441</v>
       </c>
     </row>
@@ -12308,10 +12359,10 @@
       <c r="A7" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="125" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="115"/>
+      <c r="C7" s="119"/>
       <c r="D7" s="55" t="s">
         <v>146</v>
       </c>
@@ -12337,10 +12388,10 @@
       <c r="A8" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="125" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="115"/>
+      <c r="C8" s="119"/>
       <c r="D8" s="55" t="s">
         <v>151</v>
       </c>
@@ -12366,10 +12417,10 @@
       <c r="A9" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="125" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="115"/>
+      <c r="C9" s="119"/>
       <c r="D9" s="2"/>
       <c r="E9" s="11" t="s">
         <v>157</v>
@@ -12393,10 +12444,10 @@
       <c r="A10" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="B10" s="121" t="s">
+      <c r="B10" s="125" t="s">
         <v>161</v>
       </c>
-      <c r="C10" s="115"/>
+      <c r="C10" s="119"/>
       <c r="D10" s="55" t="s">
         <v>18</v>
       </c>
@@ -20727,10 +20778,10 @@
       <c r="A6" s="55" t="s">
         <v>420</v>
       </c>
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="125" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="115"/>
+      <c r="C6" s="119"/>
       <c r="D6" s="55" t="s">
         <v>146</v>
       </c>
@@ -20754,10 +20805,10 @@
       <c r="A7" s="55" t="s">
         <v>423</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="125" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="115"/>
+      <c r="C7" s="119"/>
       <c r="D7" s="55" t="s">
         <v>151</v>
       </c>
@@ -20780,10 +20831,10 @@
       <c r="A8" s="55" t="s">
         <v>427</v>
       </c>
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="125" t="s">
         <v>428</v>
       </c>
-      <c r="C8" s="115"/>
+      <c r="C8" s="119"/>
       <c r="D8" s="55" t="s">
         <v>18</v>
       </c>

--- a/[BC-JAVA-APJ] Advanced Programming with Java v2.0_C1222I1.xlsx
+++ b/[BC-JAVA-APJ] Advanced Programming with Java v2.0_C1222I1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODEGYM\CODEGYM\Module2\C1222I1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF76A7E9-8E26-4C32-A7CD-DF9821F678B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DBC8DD-10A0-4911-B08E-BE21587C7291}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7530" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TKB APJ 8x5" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="444">
   <si>
     <t>THỜI KHOÁ BIỂU</t>
   </si>
@@ -1443,18 +1443,46 @@
     <t>Access modifier</t>
   </si>
   <si>
-    <t>Lập trình hướng đối tượng OOP là gì
-+ Từ khóa class, từ khóa new là gì? 
-+ Từ khóa this, super
-+ thuộc tính, phương thức là gì?
-+ Phương thức khởi tạo, phương thức khởi tạo mặc định
-+ Khái niệm overloading (nạp chồng), phương thức khởi tạo có phải là một dạng của overloading không</t>
+    <t>Tính đóng gói trong java là kỹ thuật ẩn giấu thông tin không liên quan và hiện thị ra thông liên quan. Mục đích chính của đóng gói trong java là giảm thiểu mức độ phức tạp phát triển phần mềm.
+Đóng gói cũng được sử dụng để bảo vệ trạng thái bên trong của một đối tượng. Bởi việc ẩn giấu các biến biểu diễn trạng thái của đối tượng. Việc chỉnh sửa đối tượng được thực hiện, xác nhận thông qua các phương thức. Hơn nữa, việc ẩn giấu các biến thì các lớp sẽ không chia sẻ thông tin với nhau được. Điều này làm giảm số lượng khớp nối có thể có trong một ứng dụng.</t>
+  </si>
+  <si>
+    <t>Là mô hình lập trình dựa trên các khải niệm đối tượng và lớp
+Object Oriented Programming
+- Từ khóa class: định nghĩa lớp, lớp là một tập các đặc điểm và hành vi để thiết kế nên đối tượng
+- Từ khóa new: để khởi tạo đối tượng
+- Thuộc tính là gì: là những đặc điểm của đối tượng
+ - Phương thức: những hành vi, hành động của đối tượng, chức năng của đối tượng
+- Phương thức khởi tạo là gì: là phương thức dùng để khởi tạo các thuộc tính của đổi tượng
+- Đặc điểm của contructor: trùng tên với class, không có kiểu dữ liệu trả về</t>
+  </si>
+  <si>
+    <t>bộ nhớ heap và stack
+https://www.youtube.com/watch?v=1rLHJJqx98Q&amp;t=74s</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Biến tham trị là gì?
+      <t>Biến tham trị là gì?
 + Biến tham chiếu
-+ Từ khóa static để làm gì?
++</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Từ khóa static để làm gì?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
 + package là gì?
 + getter/setter là gì
 + nested class là gì, static nested class
@@ -1479,7 +1507,26 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Tính đóng gói</t>
+      <t xml:space="preserve">Tham trị và tham chiếu
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>https://xuanthulab.net/kieu-tham-chieu-va-tham-tri-trong-java.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Tính đóng gói</t>
     </r>
     <r>
       <rPr>
@@ -1489,22 +1536,73 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">
-https://hiepsiit.com/detail/java/javacore/tinhdonggoitrongjava</t>
+https://hiepsiit.com/detail/java/javacore/tinhdonggoitrongjava
+</t>
     </r>
   </si>
   <si>
-    <t>Tính đóng gói trong java là kỹ thuật ẩn giấu thông tin không liên quan và hiện thị ra thông liên quan. Mục đích chính của đóng gói trong java là giảm thiểu mức độ phức tạp phát triển phần mềm.
-Đóng gói cũng được sử dụng để bảo vệ trạng thái bên trong của một đối tượng. Bởi việc ẩn giấu các biến biểu diễn trạng thái của đối tượng. Việc chỉnh sửa đối tượng được thực hiện, xác nhận thông qua các phương thức. Hơn nữa, việc ẩn giấu các biến thì các lớp sẽ không chia sẻ thông tin với nhau được. Điều này làm giảm số lượng khớp nối có thể có trong một ứng dụng.</t>
-  </si>
-  <si>
-    <t>Là mô hình lập trình dựa trên các khải niệm đối tượng và lớp
-Object Oriented Programming
-- Từ khóa class: định nghĩa lớp, lớp là một tập các đặc điểm và hành vi để thiết kế nên đối tượng
-- Từ khóa new: để khởi tạo đối tượng
-- Thuộc tính là gì: là những đặc điểm của đối tượng
- - Phương thức: những hành vi, hành động của đối tượng, chức năng của đối tượng
-- Phương thức khởi tạo là gì: là phương thức dùng để khởi tạo các thuộc tính của đổi tượng
-- Đặc điểm của contructor: trùng tên với class, không có kiểu dữ liệu trả về</t>
+    <r>
+      <t xml:space="preserve">Lập trình hướng đối tượng OOP là gì
++ Từ khóa class, từ khóa new là gì? 
++ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Từ khóa this, super</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
++ thuộc tính, phương thức là gì?
++ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Phương thức khởi tạo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, phương thức khởi tạo mặc định
++ Khái niệm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> overloading (nạp chồng)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, phương thức khởi tạo có phải là một dạng của overloading không</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1516,7 +1614,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="m/d"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1649,6 +1747,11 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -12116,8 +12219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82880983-B8C6-469A-A081-81ECDC95E864}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12165,10 +12268,13 @@
         <v>435</v>
       </c>
       <c r="B4" s="115" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="C4" s="115" t="s">
-        <v>442</v>
+        <v>439</v>
+      </c>
+      <c r="D4" s="115" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12176,13 +12282,13 @@
         <v>437</v>
       </c>
       <c r="B5" s="115" t="s">
-        <v>439</v>
-      </c>
-      <c r="C5" s="115" t="s">
-        <v>440</v>
-      </c>
-      <c r="D5" s="117" t="s">
         <v>441</v>
+      </c>
+      <c r="C5" s="117" t="s">
+        <v>438</v>
+      </c>
+      <c r="D5" s="115" t="s">
+        <v>442</v>
       </c>
     </row>
   </sheetData>

--- a/[BC-JAVA-APJ] Advanced Programming with Java v2.0_C1222I1.xlsx
+++ b/[BC-JAVA-APJ] Advanced Programming with Java v2.0_C1222I1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODEGYM\CODEGYM\Module2\C1222I1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DBC8DD-10A0-4911-B08E-BE21587C7291}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02532E1-C078-4CCC-9C1B-E434ED140065}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="450">
   <si>
     <t>THỜI KHOÁ BIỂU</t>
   </si>
@@ -1604,6 +1604,72 @@
       <t>, phương thức khởi tạo có phải là một dạng của overloading không</t>
     </r>
   </si>
+  <si>
+    <t>Kế thừa là gì?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kế thừa là gì
+Ghi đè phương thức là gì?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Đa kế thừa là gì?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Đa hình trong java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Từ khóa final
+Lớp object là gì, phương thức toString()</t>
+    </r>
+  </si>
+  <si>
+    <t>https://viblo.asia/p/da-ke-thua-trong-java-tai-sao-khong-4dbZNJMaZYM</t>
+  </si>
+  <si>
+    <t>Abstract và interface</t>
+  </si>
+  <si>
+    <t>Lớp trừu tượng và phương thức trừu tượng
+Các tính chất của lớp abstract
+Interace là gì, interface khác abstract như thế nào
+Các tính chất của interface
+Anonumous class là gì</t>
+  </si>
+  <si>
+    <t>Soạn và đọc bài trước
+Chữ đỏ là bắt buộc đọc và note lại vô vở nhé</t>
+  </si>
 </sst>
 </file>
 
@@ -1614,7 +1680,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="m/d"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1754,6 +1820,13 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -2082,10 +2155,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2292,8 +2366,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -12217,10 +12298,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82880983-B8C6-469A-A081-81ECDC95E864}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12291,9 +12372,34 @@
         <v>442</v>
       </c>
     </row>
+    <row r="6" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="114" t="s">
+        <v>444</v>
+      </c>
+      <c r="B6" s="115" t="s">
+        <v>445</v>
+      </c>
+      <c r="D6" s="126" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="114" t="s">
+        <v>447</v>
+      </c>
+      <c r="B7" s="127" t="s">
+        <v>448</v>
+      </c>
+      <c r="C7" s="115" t="s">
+        <v>449</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{43E865B5-B87C-4425-8883-0023B0E2977E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/[BC-JAVA-APJ] Advanced Programming with Java v2.0_C1222I1.xlsx
+++ b/[BC-JAVA-APJ] Advanced Programming with Java v2.0_C1222I1.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODEGYM\CODEGYM\Module2\C1222I1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02532E1-C078-4CCC-9C1B-E434ED140065}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9155C749-8C12-4F74-9943-6EDCFF2AD7C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TKB APJ 8x5" sheetId="1" r:id="rId1"/>
     <sheet name="Holiday2023" sheetId="2" r:id="rId2"/>
     <sheet name="Tổng hợp kiến thức" sheetId="5" r:id="rId3"/>
-    <sheet name="Timetable4x5" sheetId="3" state="hidden" r:id="rId4"/>
-    <sheet name="Timetable 3x3" sheetId="4" state="hidden" r:id="rId5"/>
+    <sheet name="Cham Diem" sheetId="6" r:id="rId4"/>
+    <sheet name="Timetable4x5" sheetId="3" state="hidden" r:id="rId5"/>
+    <sheet name="Timetable 3x3" sheetId="4" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="456">
   <si>
     <t>THỜI KHOÁ BIỂU</t>
   </si>
@@ -1669,6 +1670,24 @@
   <si>
     <t>Soạn và đọc bài trước
 Chữ đỏ là bắt buộc đọc và note lại vô vở nhé</t>
+  </si>
+  <si>
+    <t>Họ tên</t>
+  </si>
+  <si>
+    <t>Toàn</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Bảo</t>
+  </si>
+  <si>
+    <t>Nhật</t>
+  </si>
+  <si>
+    <t>Lực</t>
   </si>
 </sst>
 </file>
@@ -2159,7 +2178,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2350,6 +2369,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2366,12 +2392,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2908,10 +2929,10 @@
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
+      <c r="C7" s="122"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
@@ -2944,10 +2965,10 @@
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="118" t="s">
+      <c r="B8" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="119"/>
+      <c r="C8" s="122"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
@@ -4376,16 +4397,16 @@
         <f t="shared" si="0"/>
         <v>Fri</v>
       </c>
-      <c r="D39" s="120" t="s">
+      <c r="D39" s="123" t="s">
         <v>115</v>
       </c>
-      <c r="E39" s="121"/>
-      <c r="F39" s="122"/>
-      <c r="G39" s="123" t="s">
+      <c r="E39" s="124"/>
+      <c r="F39" s="125"/>
+      <c r="G39" s="126" t="s">
         <v>116</v>
       </c>
-      <c r="H39" s="121"/>
-      <c r="I39" s="122"/>
+      <c r="H39" s="124"/>
+      <c r="I39" s="125"/>
       <c r="J39" s="28"/>
       <c r="K39" s="1"/>
       <c r="M39" s="1"/>
@@ -4415,14 +4436,14 @@
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="D40" s="124" t="s">
+      <c r="D40" s="127" t="s">
         <v>118</v>
       </c>
-      <c r="E40" s="121"/>
-      <c r="F40" s="121"/>
-      <c r="G40" s="121"/>
-      <c r="H40" s="121"/>
-      <c r="I40" s="122"/>
+      <c r="E40" s="124"/>
+      <c r="F40" s="124"/>
+      <c r="G40" s="124"/>
+      <c r="H40" s="124"/>
+      <c r="I40" s="125"/>
       <c r="J40" s="31" t="s">
         <v>119</v>
       </c>
@@ -12300,7 +12321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82880983-B8C6-469A-A081-81ECDC95E864}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -12379,7 +12400,7 @@
       <c r="B6" s="115" t="s">
         <v>445</v>
       </c>
-      <c r="D6" s="126" t="s">
+      <c r="D6" s="119" t="s">
         <v>446</v>
       </c>
     </row>
@@ -12387,7 +12408,7 @@
       <c r="A7" s="114" t="s">
         <v>447</v>
       </c>
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="120" t="s">
         <v>448</v>
       </c>
       <c r="C7" s="115" t="s">
@@ -12404,6 +12425,92 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C3019F-F7BC-4143-A419-C938F37317BB}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" style="118" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="118" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1" s="129">
+        <v>44973</v>
+      </c>
+      <c r="C1" s="129">
+        <v>44974</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="118" t="s">
+        <v>451</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="118" t="s">
+        <v>452</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="118" t="s">
+        <v>453</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="118" t="s">
+        <v>454</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="118" t="s">
+        <v>455</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
@@ -12532,10 +12639,10 @@
       <c r="A7" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="128" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="119"/>
+      <c r="C7" s="122"/>
       <c r="D7" s="55" t="s">
         <v>146</v>
       </c>
@@ -12561,10 +12668,10 @@
       <c r="A8" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="125" t="s">
+      <c r="B8" s="128" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="119"/>
+      <c r="C8" s="122"/>
       <c r="D8" s="55" t="s">
         <v>151</v>
       </c>
@@ -12590,10 +12697,10 @@
       <c r="A9" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="125" t="s">
+      <c r="B9" s="128" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="119"/>
+      <c r="C9" s="122"/>
       <c r="D9" s="2"/>
       <c r="E9" s="11" t="s">
         <v>157</v>
@@ -12617,10 +12724,10 @@
       <c r="A10" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="B10" s="125" t="s">
+      <c r="B10" s="128" t="s">
         <v>161</v>
       </c>
-      <c r="C10" s="119"/>
+      <c r="C10" s="122"/>
       <c r="D10" s="55" t="s">
         <v>18</v>
       </c>
@@ -20847,7 +20954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
@@ -20951,10 +21058,10 @@
       <c r="A6" s="55" t="s">
         <v>420</v>
       </c>
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="128" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="119"/>
+      <c r="C6" s="122"/>
       <c r="D6" s="55" t="s">
         <v>146</v>
       </c>
@@ -20978,10 +21085,10 @@
       <c r="A7" s="55" t="s">
         <v>423</v>
       </c>
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="128" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="119"/>
+      <c r="C7" s="122"/>
       <c r="D7" s="55" t="s">
         <v>151</v>
       </c>
@@ -21004,10 +21111,10 @@
       <c r="A8" s="55" t="s">
         <v>427</v>
       </c>
-      <c r="B8" s="125" t="s">
+      <c r="B8" s="128" t="s">
         <v>428</v>
       </c>
-      <c r="C8" s="119"/>
+      <c r="C8" s="122"/>
       <c r="D8" s="55" t="s">
         <v>18</v>
       </c>

--- a/[BC-JAVA-APJ] Advanced Programming with Java v2.0_C1222I1.xlsx
+++ b/[BC-JAVA-APJ] Advanced Programming with Java v2.0_C1222I1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODEGYM\CODEGYM\Module2\C1222I1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9155C749-8C12-4F74-9943-6EDCFF2AD7C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B14DDD-FDC1-4649-AEBE-EA4B2986F210}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2376,6 +2376,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2392,7 +2393,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2728,8 +2728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I22" sqref="A17:I22"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36:H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2929,10 +2929,10 @@
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="122"/>
+      <c r="C7" s="123"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
@@ -2965,10 +2965,10 @@
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="122"/>
+      <c r="C8" s="123"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
@@ -4397,16 +4397,16 @@
         <f t="shared" si="0"/>
         <v>Fri</v>
       </c>
-      <c r="D39" s="123" t="s">
+      <c r="D39" s="124" t="s">
         <v>115</v>
       </c>
-      <c r="E39" s="124"/>
-      <c r="F39" s="125"/>
-      <c r="G39" s="126" t="s">
+      <c r="E39" s="125"/>
+      <c r="F39" s="126"/>
+      <c r="G39" s="127" t="s">
         <v>116</v>
       </c>
-      <c r="H39" s="124"/>
-      <c r="I39" s="125"/>
+      <c r="H39" s="125"/>
+      <c r="I39" s="126"/>
       <c r="J39" s="28"/>
       <c r="K39" s="1"/>
       <c r="M39" s="1"/>
@@ -4436,14 +4436,14 @@
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="D40" s="127" t="s">
+      <c r="D40" s="128" t="s">
         <v>118</v>
       </c>
-      <c r="E40" s="124"/>
-      <c r="F40" s="124"/>
-      <c r="G40" s="124"/>
-      <c r="H40" s="124"/>
-      <c r="I40" s="125"/>
+      <c r="E40" s="125"/>
+      <c r="F40" s="125"/>
+      <c r="G40" s="125"/>
+      <c r="H40" s="125"/>
+      <c r="I40" s="126"/>
       <c r="J40" s="31" t="s">
         <v>119</v>
       </c>
@@ -12426,10 +12426,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C3019F-F7BC-4143-A419-C938F37317BB}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12437,20 +12437,24 @@
     <col min="1" max="1" width="11.28515625" style="118" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
         <v>450</v>
       </c>
-      <c r="B1" s="129">
+      <c r="B1" s="121">
         <v>44973</v>
       </c>
-      <c r="C1" s="129">
+      <c r="C1" s="121">
         <v>44974</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="121">
+        <v>44977</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="118" t="s">
         <v>451</v>
       </c>
@@ -12460,8 +12464,11 @@
       <c r="C2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="118" t="s">
         <v>452</v>
       </c>
@@ -12471,8 +12478,11 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="118" t="s">
         <v>453</v>
       </c>
@@ -12482,8 +12492,11 @@
       <c r="C4">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="118" t="s">
         <v>454</v>
       </c>
@@ -12493,8 +12506,11 @@
       <c r="C5">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="118" t="s">
         <v>455</v>
       </c>
@@ -12503,6 +12519,9 @@
       </c>
       <c r="C6">
         <v>0</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -12639,10 +12658,10 @@
       <c r="A7" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="128" t="s">
+      <c r="B7" s="129" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="122"/>
+      <c r="C7" s="123"/>
       <c r="D7" s="55" t="s">
         <v>146</v>
       </c>
@@ -12668,10 +12687,10 @@
       <c r="A8" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="128" t="s">
+      <c r="B8" s="129" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="122"/>
+      <c r="C8" s="123"/>
       <c r="D8" s="55" t="s">
         <v>151</v>
       </c>
@@ -12697,10 +12716,10 @@
       <c r="A9" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="128" t="s">
+      <c r="B9" s="129" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="122"/>
+      <c r="C9" s="123"/>
       <c r="D9" s="2"/>
       <c r="E9" s="11" t="s">
         <v>157</v>
@@ -12724,10 +12743,10 @@
       <c r="A10" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="B10" s="128" t="s">
+      <c r="B10" s="129" t="s">
         <v>161</v>
       </c>
-      <c r="C10" s="122"/>
+      <c r="C10" s="123"/>
       <c r="D10" s="55" t="s">
         <v>18</v>
       </c>
@@ -21058,10 +21077,10 @@
       <c r="A6" s="55" t="s">
         <v>420</v>
       </c>
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="129" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="122"/>
+      <c r="C6" s="123"/>
       <c r="D6" s="55" t="s">
         <v>146</v>
       </c>
@@ -21085,10 +21104,10 @@
       <c r="A7" s="55" t="s">
         <v>423</v>
       </c>
-      <c r="B7" s="128" t="s">
+      <c r="B7" s="129" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="122"/>
+      <c r="C7" s="123"/>
       <c r="D7" s="55" t="s">
         <v>151</v>
       </c>
@@ -21111,10 +21130,10 @@
       <c r="A8" s="55" t="s">
         <v>427</v>
       </c>
-      <c r="B8" s="128" t="s">
+      <c r="B8" s="129" t="s">
         <v>428</v>
       </c>
-      <c r="C8" s="122"/>
+      <c r="C8" s="123"/>
       <c r="D8" s="55" t="s">
         <v>18</v>
       </c>
